--- a/medicine/Sexualité et sexologie/Les_Onze_Mille_Verges_(film)/Les_Onze_Mille_Verges_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Les_Onze_Mille_Verges_(film)/Les_Onze_Mille_Verges_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Onze Mille Verges est un film français réalisé par Éric Lipmann en 1974 et sorti en 1975, adapté d'après le roman de Guillaume Apollinaire Les Onze Mille Verges.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Romain Marchand, jeune cadre dans une banque, est le lointain descendant du prince Mony Vibescu (condamné au XIXe siècle au supplice des onze mille verges pour n'avoir pas pu satisfaire vingt fois de suite une de ses conquêtes). Comme il se désespère de la froideur amoureuse de sa fiancée Florence, il se réfugie dans ses rêves et y revit les aventures sulfureuses de son aïeul. 
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre : Les Onze Mille Verges
 Réalisation : Éric Lipmann
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Par ordre de crédits au générique
 Yves-Marie Maurin : Romain
